--- a/travel.xlsx
+++ b/travel.xlsx
@@ -19,26 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>員工01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>員工02</t>
+  </si>
+  <si>
+    <t>員工03</t>
+  </si>
+  <si>
+    <t>員工04</t>
+  </si>
+  <si>
+    <t>員工05</t>
+  </si>
+  <si>
+    <t>員工06</t>
+  </si>
+  <si>
+    <t>員工07</t>
+  </si>
+  <si>
+    <t>員工08</t>
+  </si>
+  <si>
+    <t>員工09</t>
+  </si>
+  <si>
+    <t>員工10</t>
+  </si>
+  <si>
+    <t>員工11</t>
   </si>
 </sst>
 </file>
@@ -363,40 +377,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/travel.xlsx
+++ b/travel.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/travel.xlsx
+++ b/travel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>員工01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>員工10</t>
-  </si>
-  <si>
-    <t>員工11</t>
   </si>
 </sst>
 </file>
@@ -377,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -435,11 +432,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
